--- a/Call_List_Creation/Data/Other Examples/reminders-Chu-2014-6-6.xlsx
+++ b/Call_List_Creation/Data/Other Examples/reminders-Chu-2014-6-6.xlsx
@@ -1267,9 +1267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1521,7 +1526,7 @@
         <v>531305716</v>
       </c>
       <c r="O5" s="3">
-        <v>12423</v>
+        <v>12423.458333333334</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
